--- a/Excelam.Tests/Files/GetCellFormat/GetCellFormatValuesCurrency.xlsx
+++ b/Excelam.Tests/Files/GetCellFormat/GetCellFormatValuesCurrency.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a990f455bb745add/ProjetsDev/70-yvlawy/Excelam/Dev/ExcelamSol/Excelam.Tests/Files/GetCellFormat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_AD4D9D64A577C15A4A5418D168D9471A5BDEDD8F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E30D3080-6587-429B-8F1F-7E71D609A186}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="11_AD4D9D64A577C15A4A5418D168D9471A5BDEDD8F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB3042D5-B067-403E-8DBB-F04BC29AB0DC}"/>
   <bookViews>
-    <workbookView xWindow="1545" yWindow="720" windowWidth="18945" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="18945" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -24,11 +24,58 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>pound</t>
+  </si>
+  <si>
+    <t>dollarUS</t>
+  </si>
+  <si>
+    <t>euro</t>
+  </si>
+  <si>
+    <t>australian dollar</t>
+  </si>
+  <si>
+    <t>canadian dollar</t>
+  </si>
+  <si>
+    <t>japanese yen</t>
+  </si>
+  <si>
+    <t>russian ruble</t>
+  </si>
+  <si>
+    <t>singapore dollar</t>
+  </si>
+  <si>
+    <t>china</t>
+  </si>
+  <si>
+    <t>bitcoin</t>
+  </si>
+  <si>
+    <t>not managed</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="11">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
-    <numFmt numFmtId="166" formatCode="[$$-409]#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="[$£-809]#,##0.00"/>
+    <numFmt numFmtId="167" formatCode="[$$-C09]#,##0.00"/>
+    <numFmt numFmtId="168" formatCode="[$$-1009]#,##0.00"/>
+    <numFmt numFmtId="169" formatCode="[$¥-411]#,##0.00"/>
+    <numFmt numFmtId="170" formatCode="#,##0.00\ [$₽-419]"/>
+    <numFmt numFmtId="171" formatCode="[$₿]\ #,##0.000000" x16r2:formatCode16="[$₿-x-xbt2]\ #,##0.000000"/>
+    <numFmt numFmtId="172" formatCode="[$$-1004]#,##0.00"/>
+    <numFmt numFmtId="173" formatCode="[$¥-804]#,##0.00"/>
+    <numFmt numFmtId="175" formatCode="[$kr.-46F]#,##0.00"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -59,10 +106,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -343,22 +399,104 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:B3"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
       <c r="B1" s="1">
         <v>120.45</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
       <c r="B3" s="2">
         <v>250.85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="3">
+        <v>120500.78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="5">
+        <v>456700</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="6">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="9">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="10">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="8">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="11">
+        <v>456</v>
       </c>
     </row>
   </sheetData>
